--- a/TestData/H_SingleSgInfiniteBus.xlsx
+++ b/TestData/H_SingleSgInfiniteBus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8BC7F7-D42B-4519-A447-B8BBFDCC36A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F5DB4F-799D-4220-AD54-25CAD80235CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -743,7 +743,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -803,12 +803,12 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <f>1/((10*2*3.14)^2/4)*2*3.14*60/2</f>
-        <v>0.19108280254777069</v>
+        <f>1/(2*2*3.14*100*2*3.14)*2*3.14*60/2</f>
+        <v>2.3885350318471336E-2</v>
       </c>
       <c r="D5" s="2">
-        <f>C5*2*3.14*10</f>
-        <v>12</v>
+        <f>1/(2*2*3.14)*2*3.14*60</f>
+        <v>30</v>
       </c>
       <c r="E5" s="2">
         <v>0.05</v>
